--- a/academias/Electricidad - Estadisticos 20242.xlsx
+++ b/academias/Electricidad - Estadisticos 20242.xlsx
@@ -905,7 +905,7 @@
         <v>10.8</v>
       </c>
       <c r="I12" s="2">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="I15" s="2">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1626,25 +1626,25 @@
         <v>37</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>8.1</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1661,25 +1661,25 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1696,25 +1696,25 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="J4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1728,25 +1728,25 @@
         <v>96</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F5">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>3.1</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="J5">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1763,25 +1763,25 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>95.8</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>4.2</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1795,25 +1795,25 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>95.8</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>4.2</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1830,25 +1830,25 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>20.8</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1865,25 +1865,25 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>20.8</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1900,25 +1900,25 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="J10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1932,25 +1932,25 @@
         <v>72</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F11">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>13.9</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J11">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1967,25 +1967,25 @@
         <v>37</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>86.5</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J12">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2002,25 +2002,25 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>89.5</v>
       </c>
       <c r="H13" s="1">
-        <v>100</v>
+        <v>10.5</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2037,25 +2037,25 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>89.3</v>
       </c>
       <c r="H14" s="1">
-        <v>100</v>
+        <v>10.7</v>
       </c>
       <c r="I14" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J14">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2069,25 +2069,25 @@
         <v>84</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F15">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>100</v>
+        <v>11.9</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J15">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2104,25 +2104,25 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>41.7</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="J16">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2139,25 +2139,25 @@
         <v>31</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F17">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J17">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2174,25 +2174,25 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H18" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2206,25 +2206,25 @@
         <v>75</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F19">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>58.7</v>
       </c>
       <c r="H19" s="1">
-        <v>100</v>
+        <v>41.3</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J19">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2241,25 +2241,25 @@
         <v>36</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>100</v>
+        <v>19.4</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="J20">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2276,25 +2276,25 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1">
-        <v>0</v>
+        <v>73.7</v>
       </c>
       <c r="H21" s="1">
-        <v>100</v>
+        <v>26.3</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="J21">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2311,25 +2311,25 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>80</v>
+      </c>
+      <c r="H22" s="1">
         <v>20</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>100</v>
-      </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2343,25 +2343,25 @@
         <v>75</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F23">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>0</v>
+        <v>78.7</v>
       </c>
       <c r="H23" s="1">
-        <v>100</v>
+        <v>21.3</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="J23">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2378,25 +2378,25 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F24">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>100</v>
+        <v>5.1</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J24">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2413,25 +2413,25 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
-        <v>0</v>
+        <v>91.7</v>
       </c>
       <c r="H25" s="1">
-        <v>100</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J25">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2445,25 +2445,25 @@
         <v>63</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F26">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="G26" s="1">
-        <v>0</v>
+        <v>93.7</v>
       </c>
       <c r="H26" s="1">
-        <v>100</v>
+        <v>6.3</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J26">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2480,25 +2480,25 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F27">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1">
-        <v>0</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H27" s="1">
-        <v>100</v>
+        <v>15.4</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="J27">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2515,25 +2515,25 @@
         <v>36</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F28">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="H28" s="1">
-        <v>100</v>
+        <v>13.9</v>
       </c>
       <c r="I28" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J28">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2550,25 +2550,25 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
+        <v>73.7</v>
       </c>
       <c r="H29" s="1">
-        <v>100</v>
+        <v>26.3</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="J29">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2582,25 +2582,25 @@
         <v>94</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F30">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H30" s="1">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J30">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2611,25 +2611,25 @@
         <v>583</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="F31">
-        <v>583</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1">
-        <v>0</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H31" s="1">
-        <v>100</v>
+        <v>15.6</v>
       </c>
       <c r="I31" s="2">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="J31">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +2712,7 @@
         <v>8.1</v>
       </c>
       <c r="I2" s="2">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>8.4</v>
+        <v>8.9</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>3.1</v>
       </c>
       <c r="I5" s="2">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2837,19 +2837,19 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>83.3</v>
+        <v>95.8</v>
       </c>
       <c r="H6" s="1">
-        <v>16.7</v>
+        <v>4.2</v>
       </c>
       <c r="I6" s="2">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2869,19 +2869,19 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>83.3</v>
+        <v>95.8</v>
       </c>
       <c r="H7" s="1">
-        <v>16.7</v>
+        <v>4.2</v>
       </c>
       <c r="I7" s="2">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2904,19 +2904,19 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
-        <v>83.3</v>
+        <v>79.2</v>
       </c>
       <c r="H8" s="1">
-        <v>16.7</v>
+        <v>20.8</v>
       </c>
       <c r="I8" s="2">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2939,19 +2939,19 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
-        <v>83.3</v>
+        <v>79.2</v>
       </c>
       <c r="H9" s="1">
-        <v>16.7</v>
+        <v>20.8</v>
       </c>
       <c r="I9" s="2">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2974,16 +2974,16 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>91.7</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <v>8.1</v>
@@ -3018,7 +3018,7 @@
         <v>13.9</v>
       </c>
       <c r="I11" s="2">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3041,19 +3041,19 @@
         <v>37</v>
       </c>
       <c r="E12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>89.2</v>
+        <v>86.5</v>
       </c>
       <c r="H12" s="1">
-        <v>10.8</v>
+        <v>13.5</v>
       </c>
       <c r="I12" s="2">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>94.7</v>
+        <v>89.5</v>
       </c>
       <c r="H13" s="1">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
       <c r="I13" s="2">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3111,19 +3111,19 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>92.90000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="H14" s="1">
-        <v>7.1</v>
+        <v>10.7</v>
       </c>
       <c r="I14" s="2">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3143,19 +3143,19 @@
         <v>84</v>
       </c>
       <c r="E15">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
-        <v>91.7</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H15" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="I15" s="2">
         <v>8.300000000000001</v>
-      </c>
-      <c r="I15" s="2">
-        <v>8.1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3178,19 +3178,19 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
-        <v>54.2</v>
+        <v>58.3</v>
       </c>
       <c r="H16" s="1">
-        <v>45.8</v>
+        <v>41.7</v>
       </c>
       <c r="I16" s="2">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3213,19 +3213,19 @@
         <v>31</v>
       </c>
       <c r="E17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1">
-        <v>74.2</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1">
-        <v>25.8</v>
+        <v>29</v>
       </c>
       <c r="I17" s="2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3248,19 +3248,19 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H18" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I18" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3280,19 +3280,19 @@
         <v>75</v>
       </c>
       <c r="E19">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G19" s="1">
-        <v>60</v>
+        <v>58.7</v>
       </c>
       <c r="H19" s="1">
-        <v>40</v>
+        <v>41.3</v>
       </c>
       <c r="I19" s="2">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3315,19 +3315,19 @@
         <v>36</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G20" s="1">
-        <v>55.6</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>44.4</v>
+        <v>19.4</v>
       </c>
       <c r="I20" s="2">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1">
-        <v>68.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="H21" s="1">
-        <v>31.6</v>
+        <v>26.3</v>
       </c>
       <c r="I21" s="2">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3385,19 +3385,19 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I22" s="2">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3417,19 +3417,19 @@
         <v>75</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>60</v>
+        <v>78.7</v>
       </c>
       <c r="H23" s="1">
-        <v>40</v>
+        <v>21.3</v>
       </c>
       <c r="I23" s="2">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3452,19 +3452,19 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1">
-        <v>69.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>30.8</v>
+        <v>5.1</v>
       </c>
       <c r="I24" s="2">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3487,19 +3487,19 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
-        <v>50</v>
+        <v>91.7</v>
       </c>
       <c r="H25" s="1">
-        <v>50</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I25" s="2">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3519,19 +3519,19 @@
         <v>63</v>
       </c>
       <c r="E26">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F26">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G26" s="1">
-        <v>61.9</v>
+        <v>93.7</v>
       </c>
       <c r="H26" s="1">
-        <v>38.1</v>
+        <v>6.3</v>
       </c>
       <c r="I26" s="2">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1">
-        <v>76.90000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H27" s="1">
-        <v>23.1</v>
+        <v>15.4</v>
       </c>
       <c r="I27" s="2">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3589,19 +3589,19 @@
         <v>36</v>
       </c>
       <c r="E28">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" s="1">
-        <v>83.3</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="H28" s="1">
-        <v>16.7</v>
+        <v>13.9</v>
       </c>
       <c r="I28" s="2">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3624,19 +3624,19 @@
         <v>19</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G29" s="1">
-        <v>52.6</v>
+        <v>73.7</v>
       </c>
       <c r="H29" s="1">
-        <v>47.4</v>
+        <v>26.3</v>
       </c>
       <c r="I29" s="2">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>94</v>
       </c>
       <c r="E30">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F30">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>74.5</v>
+        <v>83</v>
       </c>
       <c r="H30" s="1">
-        <v>25.5</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3685,19 +3685,19 @@
         <v>583</v>
       </c>
       <c r="E31">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="F31">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1">
-        <v>77.40000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H31" s="1">
-        <v>22.6</v>
+        <v>15.6</v>
       </c>
       <c r="I31" s="2">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J31">
         <v>0</v>
